--- a/Pedidos/DataExcel/Inventario/ProductoAlmacen.xlsx
+++ b/Pedidos/DataExcel/Inventario/ProductoAlmacen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
   <si>
     <t>Idioma</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Producto</t>
   </si>
   <si>
-    <t>Existencia</t>
+    <t>ExistenciaInicial</t>
   </si>
   <si>
     <t>IdGrupo</t>
@@ -67,64 +67,58 @@
     <t>PV-002</t>
   </si>
   <si>
+    <t>7781-202-001</t>
+  </si>
+  <si>
+    <t>9440-404-385</t>
+  </si>
+  <si>
+    <t>9440-303-304</t>
+  </si>
+  <si>
+    <t>9440-404-384</t>
+  </si>
+  <si>
+    <t>1500-440-055</t>
+  </si>
+  <si>
+    <t>9440-404-382</t>
+  </si>
+  <si>
+    <t>2663-909-114</t>
+  </si>
+  <si>
     <t>2590-114-102</t>
   </si>
   <si>
-    <t>9440-404-384</t>
-  </si>
-  <si>
-    <t>2663-909-114</t>
-  </si>
-  <si>
-    <t>9511-202-111</t>
-  </si>
-  <si>
-    <t>1500-440-055</t>
-  </si>
-  <si>
-    <t>9440-404-382</t>
-  </si>
-  <si>
-    <t>9511-101-140</t>
-  </si>
-  <si>
-    <t>9440-303-304</t>
-  </si>
-  <si>
-    <t>9440-404-385</t>
-  </si>
-  <si>
     <t>Paleta TRENTON 5 TRENTONITE PROFESSIONAL 30</t>
   </si>
   <si>
     <t>Paleta 4 tambores 55 gal trenton</t>
   </si>
   <si>
+    <t>TRENTON 5 LUBERMAX SYNTHETIC BLEND TOP HD FORTIFIED WITH MOLY 10W-40</t>
+  </si>
+  <si>
+    <t>Tapa con Foil 38x400 Rojo</t>
+  </si>
+  <si>
+    <t>Cap Seal 3/4' TRENTON5</t>
+  </si>
+  <si>
+    <t>Tapa con Foil 38x400 Plateado</t>
+  </si>
+  <si>
+    <t>TRENTON5 SPINDLE/NEEDLE BEARING LUBRICANT 32</t>
+  </si>
+  <si>
+    <t>Tapa con Foil 38x400 Negro</t>
+  </si>
+  <si>
+    <t>ENGINE OIL MINERAL SAE 20W-50 API SN PLUS TRENTONITE PROFESSIONAL 20W-50 API SN PLU</t>
+  </si>
+  <si>
     <t>CAJA CARTON TRENTONITE SYN BLEND - 12x1/4</t>
-  </si>
-  <si>
-    <t>Tapa con Foil 38x400 Plateado</t>
-  </si>
-  <si>
-    <t>ENGINE OIL MINERAL SAE 20W-50 API SN PLUS TRENTONITE PROFESSIONAL 20W-50 API SN PLU</t>
-  </si>
-  <si>
-    <t>Envase 1 Galon - TRENTON5</t>
-  </si>
-  <si>
-    <t>TRENTON5 SPINDLE/NEEDLE BEARING LUBRICANT 32</t>
-  </si>
-  <si>
-    <t>Tapa con Foil 38x400 Negro</t>
-  </si>
-  <si>
-    <t>Envase 1/4 Gal - TRENTON5</t>
-  </si>
-  <si>
-    <t>Cap Seal 3/4' TRENTON5</t>
-  </si>
-  <si>
-    <t>Tapa con Foil 38x400 Rojo</t>
   </si>
   <si>
     <t>Producto Terminado</t>
@@ -555,22 +549,22 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>1004</v>
+        <v>958</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K2">
-        <v>197</v>
+        <v>34</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -596,28 +590,28 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3">
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3">
         <v>2</v>
-      </c>
-      <c r="M3">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -631,34 +625,34 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>51</v>
+        <v>572</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G4">
-        <v>60545</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>98482</v>
+        <v>65</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -672,34 +666,34 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5">
-        <v>11955</v>
+        <v>3899</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="K5">
-        <v>15535</v>
+        <v>87313</v>
       </c>
       <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>6</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -713,34 +707,34 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6">
-        <v>3574010</v>
+        <v>398399</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1654</v>
+        <v>12</v>
       </c>
       <c r="K6">
-        <v>5010</v>
+        <v>47593</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -754,34 +748,34 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7">
-        <v>50009</v>
+        <v>822309</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="K7">
-        <v>86300</v>
+        <v>16527</v>
       </c>
       <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
         <v>6</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -795,34 +789,34 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>563</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G8">
-        <v>769</v>
+        <v>21207</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="K8">
-        <v>232</v>
+        <v>57721</v>
       </c>
       <c r="L8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -836,34 +830,34 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>44</v>
+        <v>563</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G9">
-        <v>38045</v>
+        <v>660</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="K9">
-        <v>99163</v>
+        <v>97</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -877,34 +871,34 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G10">
-        <v>5992</v>
+        <v>38045</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>41891</v>
+        <v>17156</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M10">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -918,34 +912,34 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>582</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G11">
-        <v>1004</v>
+        <v>3574010</v>
       </c>
       <c r="H11" t="s">
         <v>37</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>20</v>
+        <v>2636</v>
       </c>
       <c r="K11">
-        <v>47</v>
+        <v>8359</v>
       </c>
       <c r="L11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -959,34 +953,34 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>42</v>
+        <v>582</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>958</v>
+      </c>
+      <c r="H12" t="s">
         <v>35</v>
       </c>
-      <c r="G12">
-        <v>762371</v>
-      </c>
-      <c r="H12" t="s">
-        <v>38</v>
-      </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>55185</v>
+        <v>220</v>
       </c>
       <c r="L12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1000,28 +994,28 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13">
+        <v>60545</v>
+      </c>
+      <c r="H13" t="s">
         <v>36</v>
-      </c>
-      <c r="G13">
-        <v>576042</v>
-      </c>
-      <c r="H13" t="s">
-        <v>38</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="K13">
-        <v>60329</v>
+        <v>95343</v>
       </c>
       <c r="L13">
         <v>1</v>

--- a/Pedidos/DataExcel/Inventario/ProductoAlmacen.xlsx
+++ b/Pedidos/DataExcel/Inventario/ProductoAlmacen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>Idioma</t>
   </si>
@@ -73,21 +73,27 @@
     <t>9440-404-385</t>
   </si>
   <si>
+    <t>1200-660-055</t>
+  </si>
+  <si>
+    <t>1500-440-055</t>
+  </si>
+  <si>
+    <t>9511-101-140</t>
+  </si>
+  <si>
+    <t>9511-202-111</t>
+  </si>
+  <si>
+    <t>9440-404-382</t>
+  </si>
+  <si>
+    <t>2663-909-114</t>
+  </si>
+  <si>
     <t>9440-303-304</t>
   </si>
   <si>
-    <t>9440-404-384</t>
-  </si>
-  <si>
-    <t>1500-440-055</t>
-  </si>
-  <si>
-    <t>9440-404-382</t>
-  </si>
-  <si>
-    <t>2663-909-114</t>
-  </si>
-  <si>
     <t>2590-114-102</t>
   </si>
   <si>
@@ -103,19 +109,25 @@
     <t>Tapa con Foil 38x400 Rojo</t>
   </si>
   <si>
+    <t>TRENTON5 PREMIUM MULTI-VIS HYDRAULIC OIL 100</t>
+  </si>
+  <si>
+    <t>TRENTON5 SPINDLE/NEEDLE BEARING LUBRICANT 32</t>
+  </si>
+  <si>
+    <t>Envase 1/4 Gal - TRENTON5</t>
+  </si>
+  <si>
+    <t>Envase 1 Galon - TRENTON5</t>
+  </si>
+  <si>
+    <t>Tapa con Foil 38x400 Negro</t>
+  </si>
+  <si>
+    <t>ENGINE OIL MINERAL SAE 20W-50 API SN PLUS TRENTONITE PROFESSIONAL 20W-50 API SN PLU</t>
+  </si>
+  <si>
     <t>Cap Seal 3/4' TRENTON5</t>
-  </si>
-  <si>
-    <t>Tapa con Foil 38x400 Plateado</t>
-  </si>
-  <si>
-    <t>TRENTON5 SPINDLE/NEEDLE BEARING LUBRICANT 32</t>
-  </si>
-  <si>
-    <t>Tapa con Foil 38x400 Negro</t>
-  </si>
-  <si>
-    <t>ENGINE OIL MINERAL SAE 20W-50 API SN PLUS TRENTONITE PROFESSIONAL 20W-50 API SN PLU</t>
   </si>
   <si>
     <t>CAJA CARTON TRENTONITE SYN BLEND - 12x1/4</t>
@@ -549,22 +561,22 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2">
         <v>958</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -590,22 +602,22 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>121</v>
+        <v>240</v>
       </c>
       <c r="L3">
         <v>7</v>
@@ -625,34 +637,34 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>572</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>3899</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="K4">
-        <v>65</v>
+        <v>75966</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -666,34 +678,34 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>3899</v>
+        <v>398399</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>87313</v>
+        <v>90145</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M5">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -707,34 +719,34 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>542</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G6">
-        <v>398399</v>
+        <v>399173</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>47593</v>
+        <v>234</v>
       </c>
       <c r="L6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -748,34 +760,34 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>42</v>
+        <v>563</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G7">
-        <v>822309</v>
+        <v>660</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="K7">
-        <v>16527</v>
+        <v>221</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -789,34 +801,34 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G8">
-        <v>21207</v>
+        <v>12120</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="K8">
-        <v>57721</v>
+        <v>10449</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -830,34 +842,34 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>563</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G9">
-        <v>660</v>
+        <v>50019</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="K9">
-        <v>97</v>
+        <v>10654</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -874,31 +886,31 @@
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G10">
         <v>38045</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="K10">
-        <v>17156</v>
+        <v>32149</v>
       </c>
       <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
         <v>6</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -915,25 +927,25 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G11">
         <v>3574010</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>2636</v>
+        <v>2672</v>
       </c>
       <c r="K11">
-        <v>8359</v>
+        <v>4335</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -953,34 +965,34 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>582</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G12">
-        <v>958</v>
+        <v>822309</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="K12">
-        <v>220</v>
+        <v>27165</v>
       </c>
       <c r="L12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -997,31 +1009,31 @@
         <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>60545</v>
       </c>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K13">
-        <v>95343</v>
+        <v>16599</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M13">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Pedidos/DataExcel/Inventario/ProductoAlmacen.xlsx
+++ b/Pedidos/DataExcel/Inventario/ProductoAlmacen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
   <si>
     <t>Idioma</t>
   </si>
@@ -61,70 +61,64 @@
     <t>aeHFOx8jV/A=</t>
   </si>
   <si>
-    <t>2663-101-455</t>
+    <t>PV-002</t>
   </si>
   <si>
     <t>1200-660-0001</t>
   </si>
   <si>
+    <t>7781-202-001</t>
+  </si>
+  <si>
+    <t>2663-909-114</t>
+  </si>
+  <si>
+    <t>9440-404-385</t>
+  </si>
+  <si>
+    <t>9440-404-382</t>
+  </si>
+  <si>
     <t>9511-202-111</t>
   </si>
   <si>
+    <t>9440-303-304</t>
+  </si>
+  <si>
     <t>1200-660-055</t>
   </si>
   <si>
-    <t>2590-114-102</t>
-  </si>
-  <si>
     <t>2663-101-055</t>
   </si>
   <si>
-    <t>7781-202-001</t>
-  </si>
-  <si>
-    <t>9440-404-382</t>
-  </si>
-  <si>
-    <t>PV-002</t>
-  </si>
-  <si>
-    <t>9511-101-140</t>
-  </si>
-  <si>
-    <t>2663-909-114</t>
-  </si>
-  <si>
-    <t>Paleta TRENTON 5 TRENTONITE PROFESSIONAL 30</t>
+    <t>Paleta 4 tambores 55 gal trenton</t>
   </si>
   <si>
     <t>PALETA DE TRENTON5 PREMIUM MULTI-VIS HYDRAULIC OIL 68</t>
   </si>
   <si>
+    <t>TRENTON 5 LUBERMAX SYNTHETIC BLEND TOP HD FORTIFIED WITH MOLY 10W-40</t>
+  </si>
+  <si>
+    <t>ENGINE OIL MINERAL SAE 20W-50 API SN PLUS TRENTONITE PROFESSIONAL 20W-50 API SN PLU</t>
+  </si>
+  <si>
+    <t>Tapa con Foil 38x400 Rojo</t>
+  </si>
+  <si>
+    <t>Tapa con Foil 38x400 Negro</t>
+  </si>
+  <si>
     <t>Envase 1 Galon - TRENTON5</t>
   </si>
   <si>
+    <t>Cap Seal 3/4' TRENTON5</t>
+  </si>
+  <si>
     <t>TRENTON5 PREMIUM MULTI-VIS HYDRAULIC OIL 100</t>
   </si>
   <si>
-    <t>CAJA CARTON TRENTONITE SYN BLEND - 12x1/4</t>
-  </si>
-  <si>
     <t>TRENTON 5  TRENTONITE PROFESSIONAL 30</t>
-  </si>
-  <si>
-    <t>TRENTON 5 LUBERMAX SYNTHETIC BLEND TOP HD FORTIFIED WITH MOLY 10W-40</t>
-  </si>
-  <si>
-    <t>Tapa con Foil 38x400 Negro</t>
-  </si>
-  <si>
-    <t>Paleta 4 tambores 55 gal trenton</t>
-  </si>
-  <si>
-    <t>Envase 1/4 Gal - TRENTON5</t>
-  </si>
-  <si>
-    <t>ENGINE OIL MINERAL SAE 20W-50 API SN PLUS TRENTONITE PROFESSIONAL 20W-50 API SN PLU</t>
   </si>
   <si>
     <t>Producto Terminado</t>
@@ -549,28 +543,28 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>1041</v>
+        <v>144</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -596,22 +590,22 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>236</v>
+        <v>144</v>
       </c>
       <c r="L3">
         <v>7</v>
@@ -631,34 +625,34 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>580</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G4">
-        <v>50005</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>19994</v>
+        <v>222</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -672,34 +666,34 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>542</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5">
-        <v>399277</v>
+        <v>3899</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>63</v>
+        <v>65773</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -713,34 +707,34 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>582</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G6">
-        <v>1041</v>
+        <v>9080901</v>
       </c>
       <c r="H6" t="s">
         <v>37</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>2166</v>
       </c>
       <c r="K6">
-        <v>146</v>
+        <v>16571</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -754,34 +748,34 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7">
-        <v>60545</v>
+        <v>378176</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="K7">
-        <v>65494</v>
+        <v>22933</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M7">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -795,34 +789,34 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>438</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8">
-        <v>231</v>
+        <v>38045</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="K8">
-        <v>55</v>
+        <v>1522</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -836,34 +830,34 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>98</v>
+        <v>572</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G9">
-        <v>3899</v>
+        <v>144</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="K9">
-        <v>2097</v>
+        <v>172</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -877,28 +871,28 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G10">
-        <v>38045</v>
+        <v>50005</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="K10">
-        <v>52605</v>
+        <v>95202</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -918,34 +912,34 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>572</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G11">
-        <v>126</v>
+        <v>878376</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="K11">
-        <v>113</v>
+        <v>63685</v>
       </c>
       <c r="L11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -959,34 +953,34 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>37</v>
+        <v>542</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12">
+        <v>399357</v>
+      </c>
+      <c r="H12" t="s">
         <v>35</v>
-      </c>
-      <c r="G12">
-        <v>18890</v>
-      </c>
-      <c r="H12" t="s">
-        <v>38</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="K12">
-        <v>52776</v>
+        <v>174</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M12">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1000,34 +994,34 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>438</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G13">
-        <v>9080901</v>
+        <v>231</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>2549</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>8668</v>
+        <v>83</v>
       </c>
       <c r="L13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
